--- a/Selenium/Bugs/data/genre/EDM.xlsx
+++ b/Selenium/Bugs/data/genre/EDM.xlsx
@@ -259,7 +259,7 @@
     <t>Senor Loco (feat. Dany Mazo) (Alien Cut Remix Radio Edit)</t>
   </si>
   <si>
-    <t>Taki Taki (Extended Workout Remix)</t>
+    <t xml:space="preserve">Taki Taki (Extended Workout Remix) </t>
   </si>
   <si>
     <t>2002 (KREAM Remix)</t>
@@ -355,7 +355,7 @@
     <t>Mi Gente (Hardwell &amp; Quintino Remix)</t>
   </si>
   <si>
-    <t>[19금]</t>
+    <t>Welcome to the Party (feat. Zhavia Ward)</t>
   </si>
   <si>
     <t>Get Low</t>
@@ -364,7 +364,7 @@
     <t>Purple Lamborghini</t>
   </si>
   <si>
-    <t>Eat Sleep Rave Repeat (feat. Beardyman) [Calvin Harris Edit 2013]</t>
+    <t xml:space="preserve">Eat Sleep Rave Repeat (feat. Beardyman) [Calvin Harris Edit 2013] </t>
   </si>
   <si>
     <t>Smash! (Original Mix Edit)</t>
@@ -469,7 +469,7 @@
     <t>Frontier (Extended Mix)</t>
   </si>
   <si>
-    <t>The Hum</t>
+    <t xml:space="preserve">The Hum </t>
   </si>
   <si>
     <t>Mammoth (Radio Edit)</t>
@@ -760,7 +760,7 @@
     <t>Won't Give Up</t>
   </si>
   <si>
-    <t>Feels Good (Yeah!) (Kelly G. Little Louie Party Mix)</t>
+    <t xml:space="preserve">Feels Good (Yeah!) (Kelly G. Little Louie Party Mix) </t>
   </si>
   <si>
     <t>Bebe (Eric Deray Remix)</t>
@@ -778,7 +778,7 @@
     <t>Naked (Club Mix)</t>
   </si>
   <si>
-    <t>Work It Up</t>
+    <t xml:space="preserve">Work It Up </t>
   </si>
   <si>
     <t>Weekend</t>
@@ -799,7 +799,7 @@
     <t>Working For The Weekend (feat. bbno$)</t>
   </si>
   <si>
-    <t>Kontrol</t>
+    <t xml:space="preserve">Kontrol </t>
   </si>
   <si>
     <t>Solo</t>
